--- a/biology/Botanique/Leccinellum_pseudoscabrum/Leccinellum_pseudoscabrum.xlsx
+++ b/biology/Botanique/Leccinellum_pseudoscabrum/Leccinellum_pseudoscabrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rude des charmes
 Leccinellum pseudoscabrum, le Bolet rude des charmes ou Bolet des charmes, autrefois Leccinum carpini, est une espèce très commune de champignons basidiomycètes du genre Leccinellum dans la famille des Boletaceae. Comestible moyen, il est caractérisé par son chapeau cabossé, sa chair grisonnante et son habitat surtout sous charmes. Il est la seule espèce en Europe du genre Leccinellum à ne pas avoir de teintes jaunes sur ses pores.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinellum pseudoscabrum (Kallenb.) Mikšík 2017[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinellum pseudoscabrum (Kallenb.) Mikšík 2017,
 Cette espèce a été initialement classée dans le genre Boletus sous le basionyme scientifique Boletus pseudoscaber Kallenb. 1929
-Synonymes
-Leccinellum pseudoscabrum a pour synonymes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leccinellum_pseudoscabrum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinellum_pseudoscabrum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leccinellum pseudoscabrum a pour synonymes :
 Krombholzia pseudoscabra (Kallenb.) Vassilkov
 Krombholziella pseudoscabra (Kallenb.) Šutara
 Leccinum pseudoscabrum (Kallenb.) Šutara
@@ -542,44 +591,81 @@
 Leccinum pseudoscabrum f. isabellinum (Lannoy &amp; Estadès) Klofac
 Leccinellum pseudoscabrum f. isabellinum (Lannoy &amp; Estadès) Mikšík
 Leccinum carpini f. imleri J. Blum ex Lannoy &amp; Estadès
-Leccinellum pseudoscabrum var. album J.Aug. Schmitt[2]
+Leccinellum pseudoscabrum var. album J.Aug. Schmitt
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Leccinellum_pseudoscabrum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Leccinellum_pseudoscabrum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Leccinellum pseudoscabrum, le Bolet rude des charmes, sont les suivantes :
 Son chapeau, mesurant 3 à 15 cm, est typiquement cabossé, parfois craquelé, ochracé brunâtre à brun noirâtre, un peu gras au toucher.
 L'hyménophore présente des pores blanc sale à brun grisâtre, concolores aux tubes.
 Son stipe mesure 5 à 14 cm x 2 à 3,5 cm, il est sale, blanc grisâtre et couvert de fines mèches noirâtres, grisonnant puis noircissant dans les blessures.
-Sa chair est blanchâtre, puis lentement violet noirâtre et enfin noirâtre à la coupe. Sa saveur est douce et son odeur est faible[3],[4],[5]
-Caractéristiques microscopiques
-Ses spores mesurent 14 à 20 µm x 5 à 7 µm[4],. Elles sont allongées fusoïdes[3].
+Sa chair est blanchâtre, puis lentement violet noirâtre et enfin noirâtre à la coupe. Sa saveur est douce et son odeur est faible
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinellum_pseudoscabrum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinellum_pseudoscabrum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 14 à 20 µm x 5 à 7 µm,. Elles sont allongées fusoïdes.
 </t>
         </is>
       </c>
